--- a/TKIOSAutoDownLoadApp/serverlogs/tmp.xlsx
+++ b/TKIOSAutoDownLoadApp/serverlogs/tmp.xlsx
@@ -2,28 +2,43 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="下载情况表" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="20"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -47,11 +62,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -420,7 +441,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -432,366 +453,60 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col width="17.5" customWidth="1" min="1" max="6"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="35" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>手机名称</t>
+          <t>sss</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>udid</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>idfa</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>IP</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>请求时间</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>请求状态</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>测试1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>xxx</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>fsdfsdf</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>xxxx</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>fsdfsdf</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>fsfsdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>手机1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>手机2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>手机额</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>手机4</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>手机5</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>手机6</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>手机1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>手机2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>手机额</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>手机4</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>手机5</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>手机6</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>手机1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>手机2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>手机额</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>手机4</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>手机5</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>手机6</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>手机1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>手机2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>手机额</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>手机4</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>手机5</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>手机6</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>手机1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>手机2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>手机额</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>手机4</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>手机5</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>手机6</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>手机1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>手机2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>手机额</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>手机4</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>手机5</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>手机6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>手机1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>手机2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>手机额</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>手机4</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>手机5</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>手机6</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>手机1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>手机2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>手机额</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>手机4</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>手机5</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>手机6</t>
-        </is>
-      </c>
-    </row>
+    <row r="2" ht="38" customHeight="1"/>
+    <row r="3" ht="38" customHeight="1"/>
+    <row r="4" ht="38" customHeight="1"/>
+    <row r="5" ht="38" customHeight="1"/>
+    <row r="6" ht="38" customHeight="1"/>
+    <row r="7" ht="38" customHeight="1"/>
+    <row r="8" ht="38" customHeight="1"/>
+    <row r="9" ht="38" customHeight="1"/>
+    <row r="10" ht="38" customHeight="1"/>
+    <row r="11" ht="38" customHeight="1"/>
+    <row r="12" ht="38" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TKIOSAutoDownLoadApp/serverlogs/tmp.xlsx
+++ b/TKIOSAutoDownLoadApp/serverlogs/tmp.xlsx
@@ -1,50 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taken/Desktop/groupControliOS/TKIOSAutoDownLoadApp/serverlogs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69843E36-2EEC-584C-B861-1C500C67F8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="下载情况表" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="下载情况表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>手机名称</t>
+  </si>
+  <si>
+    <t>udid</t>
+  </si>
+  <si>
+    <t>idfa</t>
+  </si>
+  <si>
+    <t>app打开时长</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>请求状态</t>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <family val="3"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="20"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,87 +101,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -430,84 +413,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="17.5" customWidth="1" min="1" max="6"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customFormat="1" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>udid</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>idfa</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>IP</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>请求时间</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>请求状态</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="35" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="38" customHeight="1"/>
-    <row r="3" ht="38" customHeight="1"/>
-    <row r="4" ht="38" customHeight="1"/>
-    <row r="5" ht="38" customHeight="1"/>
-    <row r="6" ht="38" customHeight="1"/>
-    <row r="7" ht="38" customHeight="1"/>
-    <row r="8" ht="38" customHeight="1"/>
-    <row r="9" ht="38" customHeight="1"/>
-    <row r="10" ht="38" customHeight="1"/>
-    <row r="11" ht="38" customHeight="1"/>
-    <row r="12" ht="38" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>